--- a/data/case1/19/V2_1.xlsx
+++ b/data/case1/19/V2_1.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999303770015</v>
+        <v>0.99999998762845288</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99448934823155621</v>
+        <v>0.99581994833251841</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.97445623296941686</v>
+        <v>0.97711516827561795</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.96553910879139437</v>
+        <v>0.969172387318884</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.95705904832819522</v>
+        <v>0.96170058667752145</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.93799855990393421</v>
+        <v>0.94590149909790511</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.93640980231995152</v>
+        <v>0.94441556135928351</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.93321764534183482</v>
+        <v>0.94061077233455892</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.9324572108060224</v>
+        <v>0.93916066183786673</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.92162811080451834</v>
+        <v>0.93864472260512199</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.92003187656592478</v>
+        <v>0.93849764875719166</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.91725182843027442</v>
+        <v>0.93847466181766825</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.90596396207008256</v>
+        <v>0.94390176315783458</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.90179644549887339</v>
+        <v>0.94630137421641836</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.89920487892508039</v>
+        <v>0.94558422269325271</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.89669832553138584</v>
+        <v>0.9453772221725083</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.89299034622845097</v>
+        <v>0.94604359682801453</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.89188143513461771</v>
+        <v>0.94720570098301415</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99191318200146605</v>
+        <v>0.99476682347902057</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.9823194345400954</v>
+        <v>0.98765004563335013</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.9809209486136814</v>
+        <v>0.98625160119640287</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.97965644230923243</v>
+        <v>0.98498709936966411</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.96742072993478123</v>
+        <v>0.97007997410915969</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.95439912971126706</v>
+        <v>0.95705866710879539</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.94794201557641444</v>
+        <v>0.95060161732037685</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.9354256293121147</v>
+        <v>0.94401482869485387</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.93208704415907651</v>
+        <v>0.94016667594426784</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.91882540637862054</v>
+        <v>0.92561130044084206</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.90963244464650594</v>
+        <v>0.91544837790558597</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.90563432904466568</v>
+        <v>0.91057065387551128</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.90600606528460426</v>
+        <v>0.90998246058034327</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.90432677785330262</v>
+        <v>0.90830323370302934</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.90380677379744168</v>
+        <v>0.90778323998870303</v>
       </c>
     </row>
   </sheetData>
